--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -7,7 +7,13 @@
     <workbookView windowWidth="23895" windowHeight="10500"/>
   </bookViews>
   <sheets>
-    <sheet name="14" sheetId="1" r:id="rId1"/>
+    <sheet name="3" sheetId="2" r:id="rId1"/>
+    <sheet name="6" sheetId="3" r:id="rId2"/>
+    <sheet name="9" sheetId="4" r:id="rId3"/>
+    <sheet name="10" sheetId="5" r:id="rId4"/>
+    <sheet name="12" sheetId="6" r:id="rId5"/>
+    <sheet name="13" sheetId="7" r:id="rId6"/>
+    <sheet name="14" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -17,6 +23,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>聚魂</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
   <si>
     <t>修炼</t>
@@ -60,9 +69,6 @@
   <si>
     <t>云裳</t>
   </si>
-  <si>
-    <t>合计</t>
-  </si>
 </sst>
 </file>
 
@@ -70,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +86,52 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,7 +143,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,34 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,37 +212,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,31 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,16 +451,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -502,16 +499,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -535,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,9 +1009,354 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>SUM(B2:B2)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>SUM(B2:B2)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1016,46 +1367,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1271,7 +1622,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1296,8 +1647,14 @@
       <c r="L8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1319,8 +1676,14 @@
       <c r="L9">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1342,8 +1705,14 @@
       <c r="L10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1364,6 +1733,12 @@
       </c>
       <c r="L11">
         <v>120</v>
+      </c>
+      <c r="N11">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1608,7 +1983,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:P42" si="0">SUM(B2:B41)</f>
@@ -1660,11 +2035,712 @@
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>596</v>
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>596</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>52</v>
+      </c>
+      <c r="O5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>72</v>
+      </c>
+      <c r="O6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>45</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>75</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="L10">
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>160</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>160</v>
+      </c>
+      <c r="L11">
+        <v>120</v>
+      </c>
+      <c r="N11">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:P42" si="0">SUM(B2:B41)</f>
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>596</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -77,8 +77,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,37 +86,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,21 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,30 +106,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,10 +128,77 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,16 +209,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +451,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -470,7 +503,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,39 +525,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2195,7 +2195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2225,6 +2225,9 @@
       </c>
       <c r="O4">
         <v>32</v>
+      </c>
+      <c r="P4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2744,7 +2747,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10500"/>
+    <workbookView windowWidth="23895" windowHeight="10500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,7 +89,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -97,16 +104,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,8 +120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,7 +145,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,7 +182,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,37 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,17 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,39 +471,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,22 +494,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +509,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,142 +553,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,7 +1017,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1456,7 +1462,7 @@
         <v>16</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1491,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="P3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1525,8 +1531,11 @@
       <c r="O4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1557,8 +1566,11 @@
       <c r="O5">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1588,6 +1600,9 @@
       </c>
       <c r="O6">
         <v>72</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2043,7 +2058,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2072,7 @@
   <sheetPr/>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2150,14 +2165,14 @@
       <c r="M2">
         <v>60</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>16</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>16</v>
       </c>
-      <c r="P2">
-        <v>10</v>
+      <c r="P2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2185,14 +2200,14 @@
       <c r="L3">
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>24</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>24</v>
       </c>
-      <c r="P3">
-        <v>15</v>
+      <c r="P3" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2220,17 +2235,17 @@
       <c r="L4">
         <v>18</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>32</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>32</v>
       </c>
-      <c r="P4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2255,14 +2270,17 @@
       <c r="L5">
         <v>24</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>52</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2287,14 +2305,17 @@
       <c r="L6">
         <v>30</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>72</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2319,14 +2340,15 @@
       <c r="L7">
         <v>45</v>
       </c>
-      <c r="N7">
-        <v>80</v>
-      </c>
-      <c r="O7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="2">
+        <v>80</v>
+      </c>
+      <c r="O7" s="2">
+        <v>80</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2351,14 +2373,15 @@
       <c r="L8">
         <v>60</v>
       </c>
-      <c r="N8">
-        <v>80</v>
-      </c>
-      <c r="O8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="N8" s="2">
+        <v>80</v>
+      </c>
+      <c r="O8" s="2">
+        <v>80</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2380,14 +2403,15 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9">
-        <v>80</v>
-      </c>
-      <c r="O9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="N9" s="2">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2">
+        <v>80</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2409,14 +2433,15 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10">
-        <v>80</v>
-      </c>
-      <c r="O10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="N10" s="2">
+        <v>80</v>
+      </c>
+      <c r="O10" s="2">
+        <v>80</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2438,12 +2463,13 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11">
-        <v>80</v>
-      </c>
-      <c r="O11">
-        <v>80</v>
-      </c>
+      <c r="N11" s="2">
+        <v>80</v>
+      </c>
+      <c r="O11" s="2">
+        <v>80</v>
+      </c>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
@@ -2746,8 +2772,8 @@
         <v>596</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>SUM(P3:P41)</f>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,7 +91,58 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,31 +156,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -145,44 +172,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,21 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -218,16 +225,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,67 +486,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -533,6 +509,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,145 +553,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1363,7 +1360,9 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2073,7 +2072,9 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2171,7 +2172,7 @@
       <c r="O2" s="2">
         <v>16</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2206,7 +2207,7 @@
       <c r="O3" s="2">
         <v>24</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>10</v>
       </c>
     </row>
@@ -2241,7 +2242,7 @@
       <c r="O4" s="2">
         <v>32</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>15</v>
       </c>
     </row>
@@ -2276,7 +2277,7 @@
       <c r="O5" s="2">
         <v>52</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>30</v>
       </c>
     </row>
@@ -2311,7 +2312,7 @@
       <c r="O6" s="2">
         <v>72</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>30</v>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
@@ -2379,7 +2380,7 @@
       <c r="O8" s="2">
         <v>80</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
@@ -2409,7 +2410,7 @@
       <c r="O9" s="2">
         <v>80</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
@@ -2439,7 +2440,7 @@
       <c r="O10" s="2">
         <v>80</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
@@ -2469,7 +2470,7 @@
       <c r="O11" s="2">
         <v>80</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -97,31 +97,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,7 +119,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,21 +149,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +163,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -187,10 +171,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +187,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -211,15 +203,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +225,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,25 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,37 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,115 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,21 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,6 +491,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,15 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,19 +553,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,112 +574,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,7 +1604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1635,8 +1635,11 @@
       <c r="O7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1666,6 +1669,9 @@
       </c>
       <c r="O8">
         <v>80</v>
+      </c>
+      <c r="P8">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2057,7 +2063,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2353,9 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
@@ -2380,7 +2388,9 @@
       <c r="O8" s="2">
         <v>80</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
@@ -2774,7 +2784,7 @@
       </c>
       <c r="P42">
         <f>SUM(P3:P41)</f>
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>聚魂</t>
   </si>
@@ -69,15 +69,18 @@
   <si>
     <t>云裳</t>
   </si>
+  <si>
+    <t>云裳部件</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -89,16 +92,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,41 +130,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -162,6 +152,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -171,23 +198,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -203,16 +214,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,43 +245,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,139 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +466,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,6 +509,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,7 +1360,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1367,7 +1370,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:16">
+    <row r="1" s="1" customFormat="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,11 +1413,8 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1460,11 +1460,8 @@
       <c r="O2">
         <v>16</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1495,11 +1492,8 @@
       <c r="O3">
         <v>24</v>
       </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1530,11 +1524,8 @@
       <c r="O4">
         <v>32</v>
       </c>
-      <c r="P4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1565,11 +1556,8 @@
       <c r="O5">
         <v>52</v>
       </c>
-      <c r="P5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1600,11 +1588,8 @@
       <c r="O6">
         <v>72</v>
       </c>
-      <c r="P6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1635,11 +1620,8 @@
       <c r="O7">
         <v>80</v>
       </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1669,9 +1651,6 @@
       </c>
       <c r="O8">
         <v>80</v>
-      </c>
-      <c r="P8">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2001,7 +1980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2060,10 +2039,6 @@
       <c r="O42">
         <f t="shared" si="0"/>
         <v>596</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2050,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2085,7 +2060,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:16">
+    <row r="1" s="1" customFormat="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2131,8 +2106,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2181,8 +2159,11 @@
       <c r="P2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2215,6 +2196,9 @@
       </c>
       <c r="P3" s="2">
         <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,30 +93,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +115,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,9 +143,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +183,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -190,7 +205,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -207,7 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,28 +230,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,19 +245,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,163 +407,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,11 +445,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,9 +477,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,26 +512,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -693,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,10 +1460,10 @@
       <c r="M2">
         <v>60</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>16</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>16</v>
       </c>
     </row>
@@ -1486,10 +1492,10 @@
       <c r="L3">
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>24</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>24</v>
       </c>
     </row>
@@ -1518,10 +1524,10 @@
       <c r="L4">
         <v>18</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>32</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>32</v>
       </c>
     </row>
@@ -1550,10 +1556,10 @@
       <c r="L5">
         <v>24</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>52</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>52</v>
       </c>
     </row>
@@ -1582,10 +1588,10 @@
       <c r="L6">
         <v>30</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>72</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>72</v>
       </c>
     </row>
@@ -1614,10 +1620,10 @@
       <c r="L7">
         <v>45</v>
       </c>
-      <c r="N7">
-        <v>80</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="2">
+        <v>80</v>
+      </c>
+      <c r="O7" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1646,10 +1652,10 @@
       <c r="L8">
         <v>60</v>
       </c>
-      <c r="N8">
-        <v>80</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="2">
+        <v>80</v>
+      </c>
+      <c r="O8" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1675,10 +1681,10 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9">
-        <v>80</v>
-      </c>
-      <c r="O9">
+      <c r="N9" s="2">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1704,10 +1710,10 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10">
-        <v>80</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="2">
+        <v>80</v>
+      </c>
+      <c r="O10" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1733,10 +1739,10 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11">
-        <v>80</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="2">
+        <v>80</v>
+      </c>
+      <c r="O11" s="2">
         <v>80</v>
       </c>
     </row>
@@ -2159,7 +2165,7 @@
       <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2197,11 +2203,11 @@
       <c r="P3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2235,8 +2241,9 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2270,8 +2277,9 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2305,8 +2313,9 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2340,8 +2349,9 @@
       <c r="P7" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2375,8 +2385,9 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2405,8 +2416,9 @@
         <v>80</v>
       </c>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2435,8 +2447,9 @@
         <v>80</v>
       </c>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2465,46 +2478,57 @@
         <v>80</v>
       </c>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,8 +92,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,37 +131,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,24 +166,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,22 +198,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -220,6 +213,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -227,14 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,25 +251,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,157 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,21 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,8 +474,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +499,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +507,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,142 +562,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1681,10 +1684,10 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="2">
-        <v>80</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="N9" s="3">
+        <v>80</v>
+      </c>
+      <c r="O9" s="3">
         <v>80</v>
       </c>
     </row>
@@ -1710,10 +1713,10 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="2">
-        <v>80</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3">
+        <v>80</v>
+      </c>
+      <c r="O10" s="3">
         <v>80</v>
       </c>
     </row>
@@ -1739,10 +1742,10 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="2">
-        <v>80</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="N11" s="3">
+        <v>80</v>
+      </c>
+      <c r="O11" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2162,10 +2165,10 @@
       <c r="O2" s="2">
         <v>16</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="3">
         <v>0</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2203,7 +2206,7 @@
       <c r="P3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2241,7 +2244,7 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
@@ -2277,7 +2280,7 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
@@ -2313,7 +2316,7 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
@@ -2346,10 +2349,10 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <v>30</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
@@ -2385,7 +2388,7 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
@@ -2409,14 +2412,14 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="2">
-        <v>80</v>
-      </c>
-      <c r="O9" s="2">
-        <v>80</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="N9" s="3">
+        <v>80</v>
+      </c>
+      <c r="O9" s="3">
+        <v>80</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
@@ -2440,14 +2443,14 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="2">
-        <v>80</v>
-      </c>
-      <c r="O10" s="2">
-        <v>80</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="N10" s="3">
+        <v>80</v>
+      </c>
+      <c r="O10" s="3">
+        <v>80</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
@@ -2471,14 +2474,14 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="2">
-        <v>80</v>
-      </c>
-      <c r="O11" s="2">
-        <v>80</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="N11" s="3">
+        <v>80</v>
+      </c>
+      <c r="O11" s="3">
+        <v>80</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
@@ -2487,8 +2490,8 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
@@ -2497,8 +2500,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
@@ -2507,8 +2510,8 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
@@ -2517,8 +2520,8 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
@@ -2527,8 +2530,8 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -80,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,32 +92,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,14 +107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +120,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -158,16 +149,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -191,9 +182,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,17 +205,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,7 +222,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,20 +477,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,16 +503,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,17 +523,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,10 +562,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,130 +574,133 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1684,10 +1687,10 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="3">
-        <v>80</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="4">
+        <v>80</v>
+      </c>
+      <c r="O9" s="4">
         <v>80</v>
       </c>
     </row>
@@ -1713,10 +1716,10 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="3">
-        <v>80</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="4">
+        <v>80</v>
+      </c>
+      <c r="O10" s="4">
         <v>80</v>
       </c>
     </row>
@@ -1742,10 +1745,10 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="3">
-        <v>80</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="N11" s="4">
+        <v>80</v>
+      </c>
+      <c r="O11" s="4">
         <v>80</v>
       </c>
     </row>
@@ -2244,7 +2247,7 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
@@ -2280,7 +2283,7 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
@@ -2316,7 +2319,7 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
@@ -2349,10 +2352,10 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="4">
         <v>30</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
@@ -2388,7 +2391,7 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
@@ -2412,14 +2415,14 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="3">
-        <v>80</v>
-      </c>
-      <c r="O9" s="3">
-        <v>80</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="N9" s="4">
+        <v>80</v>
+      </c>
+      <c r="O9" s="4">
+        <v>80</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
@@ -2443,14 +2446,14 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="3">
-        <v>80</v>
-      </c>
-      <c r="O10" s="3">
-        <v>80</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="N10" s="4">
+        <v>80</v>
+      </c>
+      <c r="O10" s="4">
+        <v>80</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
@@ -2474,14 +2477,14 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="3">
-        <v>80</v>
-      </c>
-      <c r="O11" s="3">
-        <v>80</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="N11" s="4">
+        <v>80</v>
+      </c>
+      <c r="O11" s="4">
+        <v>80</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
@@ -2490,8 +2493,8 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
@@ -2500,8 +2503,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
@@ -2510,8 +2513,8 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
@@ -2520,8 +2523,8 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
@@ -2530,8 +2533,8 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,28 +93,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,28 +101,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,16 +116,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +154,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -197,44 +229,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,127 +251,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,55 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,6 +482,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,41 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,10 +702,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1687,10 +1687,10 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="4">
-        <v>80</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="3">
+        <v>80</v>
+      </c>
+      <c r="O9" s="3">
         <v>80</v>
       </c>
     </row>
@@ -1716,10 +1716,10 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="4">
-        <v>80</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="N10" s="3">
+        <v>80</v>
+      </c>
+      <c r="O10" s="3">
         <v>80</v>
       </c>
     </row>
@@ -1745,10 +1745,10 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="4">
-        <v>80</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="N11" s="3">
+        <v>80</v>
+      </c>
+      <c r="O11" s="3">
         <v>80</v>
       </c>
     </row>
@@ -2168,10 +2168,10 @@
       <c r="O2" s="2">
         <v>16</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       <c r="P3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2247,7 +2247,9 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
@@ -2283,7 +2285,7 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
@@ -2319,7 +2321,7 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
@@ -2352,10 +2354,10 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>30</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
@@ -2391,7 +2393,7 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
@@ -2415,14 +2417,16 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="4">
-        <v>80</v>
-      </c>
-      <c r="O9" s="4">
-        <v>80</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="N9" s="3">
+        <v>80</v>
+      </c>
+      <c r="O9" s="3">
+        <v>80</v>
+      </c>
+      <c r="P9" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
@@ -2446,14 +2450,14 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="4">
-        <v>80</v>
-      </c>
-      <c r="O10" s="4">
-        <v>80</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="N10" s="3">
+        <v>80</v>
+      </c>
+      <c r="O10" s="3">
+        <v>80</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
@@ -2477,14 +2481,14 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="4">
-        <v>80</v>
-      </c>
-      <c r="O11" s="4">
-        <v>80</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="N11" s="3">
+        <v>80</v>
+      </c>
+      <c r="O11" s="3">
+        <v>80</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
@@ -2493,8 +2497,8 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
@@ -2503,8 +2507,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
@@ -2513,8 +2517,8 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
@@ -2523,8 +2527,8 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
@@ -2533,8 +2537,8 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
@@ -2798,7 +2802,7 @@
       </c>
       <c r="P42">
         <f>SUM(P3:P41)</f>
-        <v>150</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,8 +92,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,126 +229,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,12 +251,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,7 +335,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,157 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,58 +445,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +480,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -525,20 +498,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1687,10 +1687,10 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="3">
-        <v>80</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="4">
+        <v>80</v>
+      </c>
+      <c r="O9" s="4">
         <v>80</v>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2417,10 +2417,10 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="3">
-        <v>80</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="4">
+        <v>80</v>
+      </c>
+      <c r="O9" s="4">
         <v>80</v>
       </c>
       <c r="P9" s="2">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,24 +92,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,49 +145,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,16 +153,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,8 +177,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,12 +199,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,11 +445,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,21 +505,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -542,6 +524,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,137 +562,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,9 +703,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1687,10 +1684,10 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="4">
-        <v>80</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="2">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2">
         <v>80</v>
       </c>
     </row>
@@ -2417,10 +2414,10 @@
       <c r="L9">
         <v>75</v>
       </c>
-      <c r="N9" s="4">
-        <v>80</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="2">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2">
         <v>80</v>
       </c>
       <c r="P9" s="2">
@@ -2456,7 +2453,9 @@
       <c r="O10" s="3">
         <v>80</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="2">
+        <v>35</v>
+      </c>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17">
@@ -2802,7 +2801,7 @@
       </c>
       <c r="P42">
         <f>SUM(P3:P41)</f>
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,16 +99,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,8 +136,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,33 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,15 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,34 +220,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,79 +251,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,66 +425,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,36 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,16 +446,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +474,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +513,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,39 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2282,7 +2282,9 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
@@ -2318,7 +2320,9 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
@@ -2354,7 +2358,9 @@
       <c r="P7" s="3">
         <v>30</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
@@ -2390,7 +2396,9 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
@@ -2423,7 +2431,9 @@
       <c r="P9" s="2">
         <v>35</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
@@ -2456,7 +2466,9 @@
       <c r="P10" s="2">
         <v>35</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
@@ -2486,8 +2498,12 @@
       <c r="O11" s="3">
         <v>80</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
@@ -2496,8 +2512,12 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
@@ -2506,8 +2526,12 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
@@ -2516,8 +2540,12 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
@@ -2526,8 +2554,12 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
@@ -2536,8 +2568,12 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
@@ -2801,7 +2837,7 @@
       </c>
       <c r="P42">
         <f>SUM(P3:P41)</f>
-        <v>220</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,8 +92,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,14 +118,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,38 +139,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,21 +168,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -205,6 +182,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -212,11 +221,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,14 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,21 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,17 +456,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -504,11 +482,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +533,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,137 +562,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +703,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1713,10 +1716,10 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="3">
-        <v>80</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="4">
+        <v>80</v>
+      </c>
+      <c r="O10" s="4">
         <v>80</v>
       </c>
     </row>
@@ -2457,10 +2460,10 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="3">
-        <v>80</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="4">
+        <v>80</v>
+      </c>
+      <c r="O10" s="4">
         <v>80</v>
       </c>
       <c r="P10" s="2">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,9 +92,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,50 +200,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +215,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,61 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,85 +251,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,91 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,19 +448,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,24 +504,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,15 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1716,10 +1716,10 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="4">
-        <v>80</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="N10" s="2">
+        <v>80</v>
+      </c>
+      <c r="O10" s="2">
         <v>80</v>
       </c>
     </row>
@@ -1745,10 +1745,10 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="3">
-        <v>80</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="N11" s="4">
+        <v>80</v>
+      </c>
+      <c r="O11" s="4">
         <v>80</v>
       </c>
     </row>
@@ -2460,10 +2460,10 @@
       <c r="L10">
         <v>90</v>
       </c>
-      <c r="N10" s="4">
-        <v>80</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="N10" s="2">
+        <v>80</v>
+      </c>
+      <c r="O10" s="2">
         <v>80</v>
       </c>
       <c r="P10" s="2">
@@ -2495,10 +2495,10 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="3">
-        <v>80</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="N11" s="4">
+        <v>80</v>
+      </c>
+      <c r="O11" s="4">
         <v>80</v>
       </c>
       <c r="P11" s="3">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,54 +92,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,7 +121,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,16 +190,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,16 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,8 +448,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,39 +534,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -512,36 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,10 +702,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1745,10 +1745,10 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="4">
-        <v>80</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="N11" s="2">
+        <v>80</v>
+      </c>
+      <c r="O11" s="2">
         <v>80</v>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       <c r="P7" s="3">
         <v>30</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       <c r="P9" s="2">
         <v>35</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       <c r="P10" s="2">
         <v>35</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2495,16 +2495,16 @@
       <c r="L11">
         <v>120</v>
       </c>
-      <c r="N11" s="4">
-        <v>80</v>
-      </c>
-      <c r="O11" s="4">
-        <v>80</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" s="2">
+        <v>80</v>
+      </c>
+      <c r="O11" s="2">
+        <v>80</v>
+      </c>
+      <c r="P11" s="4">
         <v>35</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2515,10 +2515,10 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <v>35</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2529,10 +2529,10 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <v>35</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2543,10 +2543,10 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <v>35</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2557,10 +2557,10 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="4">
         <v>35</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2571,10 +2571,10 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="4">
         <v>35</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="4">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,12 +93,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -114,6 +138,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -121,15 +152,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,16 +182,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,21 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -197,24 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,15 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,61 +251,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,121 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,48 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,6 +475,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -534,11 +512,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,145 +562,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2285,7 +2282,7 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2323,7 +2320,7 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2358,10 +2355,10 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>30</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2399,7 +2396,7 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2434,7 +2431,7 @@
       <c r="P9" s="2">
         <v>35</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2469,7 +2466,7 @@
       <c r="P10" s="2">
         <v>35</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2501,10 +2498,10 @@
       <c r="O11" s="2">
         <v>80</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>35</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2515,10 +2512,10 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>35</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2529,10 +2526,10 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>35</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2543,10 +2540,10 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>35</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2557,10 +2554,10 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>35</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2571,10 +2568,10 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>35</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2778,7 +2775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2841,6 +2838,10 @@
       <c r="P42">
         <f>SUM(P3:P41)</f>
         <v>430</v>
+      </c>
+      <c r="Q42">
+        <f>SUM(Q3:Q41)</f>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -93,7 +93,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +164,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,98 +215,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -228,9 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,25 +251,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,145 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -470,6 +488,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -494,54 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,142 +562,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -774,7 +777,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2282,7 +2285,7 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2320,7 +2323,7 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2358,7 +2361,7 @@
       <c r="P7" s="2">
         <v>30</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2396,7 +2399,7 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2431,7 +2434,7 @@
       <c r="P9" s="2">
         <v>35</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2466,7 +2469,7 @@
       <c r="P10" s="2">
         <v>35</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2501,7 +2504,7 @@
       <c r="P11" s="3">
         <v>35</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2512,10 +2515,10 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <v>35</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2526,10 +2529,10 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <v>35</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2540,10 +2543,10 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <v>35</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2554,10 +2557,10 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="4">
         <v>35</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2568,10 +2571,10 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="4">
         <v>35</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="4">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -93,15 +93,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,7 +108,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,40 +130,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,28 +167,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -223,14 +184,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,50 +445,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,13 +486,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +533,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,7 +777,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2501,7 +2501,7 @@
       <c r="O11" s="2">
         <v>80</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>35</v>
       </c>
       <c r="Q11" s="4">
@@ -2515,7 +2515,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>35</v>
       </c>
       <c r="Q12" s="4">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -93,83 +93,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,29 +123,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -222,7 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +168,73 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,67 +251,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,115 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,41 +447,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,7 +472,48 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -528,15 +537,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,145 +562,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2285,8 +2282,8 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="4">
-        <v>4</v>
+      <c r="Q5" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2323,8 +2320,8 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="4">
-        <v>4</v>
+      <c r="Q6" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2361,8 +2358,8 @@
       <c r="P7" s="2">
         <v>30</v>
       </c>
-      <c r="Q7" s="4">
-        <v>4</v>
+      <c r="Q7" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2399,8 +2396,8 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="4">
-        <v>4</v>
+      <c r="Q8" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2434,8 +2431,8 @@
       <c r="P9" s="2">
         <v>35</v>
       </c>
-      <c r="Q9" s="4">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2469,8 +2466,8 @@
       <c r="P10" s="2">
         <v>35</v>
       </c>
-      <c r="Q10" s="4">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2504,8 +2501,8 @@
       <c r="P11" s="2">
         <v>35</v>
       </c>
-      <c r="Q11" s="4">
-        <v>4</v>
+      <c r="Q11" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2515,11 +2512,11 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>35</v>
       </c>
-      <c r="Q12" s="4">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2529,11 +2526,11 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>35</v>
       </c>
-      <c r="Q13" s="4">
-        <v>4</v>
+      <c r="Q13" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2543,11 +2540,11 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>35</v>
       </c>
-      <c r="Q14" s="4">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2557,11 +2554,11 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>35</v>
       </c>
-      <c r="Q15" s="4">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2571,11 +2568,11 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>35</v>
       </c>
-      <c r="Q16" s="4">
-        <v>4</v>
+      <c r="Q16" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2844,7 +2841,7 @@
       </c>
       <c r="Q42">
         <f>SUM(Q3:Q41)</f>
-        <v>54</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,52 +93,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -155,7 +122,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,37 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,25 +212,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,55 +251,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,127 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,8 +448,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,23 +471,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -508,27 +519,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -538,7 +538,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,137 +562,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +703,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2282,7 +2285,7 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2320,7 +2323,7 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>8</v>
       </c>
     </row>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>聚魂</t>
   </si>
@@ -72,6 +72,9 @@
   <si>
     <t>云裳部件</t>
   </si>
+  <si>
+    <t>云裳点化</t>
+  </si>
 </sst>
 </file>
 
@@ -93,12 +96,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,6 +114,30 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,11 +163,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,54 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,25 +204,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +445,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,34 +485,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -519,16 +522,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -538,7 +541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,137 +565,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,9 +706,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2062,7 +2062,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2072,7 +2072,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:17">
+    <row r="1" s="1" customFormat="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,8 +2121,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2174,8 +2177,11 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2212,8 +2218,11 @@
       <c r="Q3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2250,8 +2259,11 @@
       <c r="Q4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2285,11 +2297,14 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="2">
+        <v>6</v>
+      </c>
+      <c r="R5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2323,11 +2338,14 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2364,8 +2382,11 @@
       <c r="Q7" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2402,8 +2423,11 @@
       <c r="Q8" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2437,8 +2461,11 @@
       <c r="Q9" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2472,8 +2499,11 @@
       <c r="Q10" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2507,8 +2537,11 @@
       <c r="Q11" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2521,8 +2554,11 @@
       <c r="Q12" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2535,8 +2571,11 @@
       <c r="Q13" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2549,8 +2588,11 @@
       <c r="Q14" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2563,8 +2605,11 @@
       <c r="Q15" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2577,125 +2622,173 @@
       <c r="Q16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="R16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="R17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="R18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="R19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="R20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="R21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="R22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="R23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="R24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="R25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="D26">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="R26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="R27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="R28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="R29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="R30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="D31">
         <v>5</v>
+      </c>
+      <c r="R31" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2778,7 +2871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2839,12 +2932,16 @@
         <v>596</v>
       </c>
       <c r="P42">
-        <f>SUM(P3:P41)</f>
+        <f t="shared" ref="P42:R42" si="1">SUM(P3:P41)</f>
         <v>430</v>
       </c>
       <c r="Q42">
-        <f>SUM(Q3:Q41)</f>
+        <f t="shared" si="1"/>
         <v>162</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,14 +95,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -111,7 +141,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,14 +157,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,32 +178,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,9 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,9 +209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,21 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,11 +450,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,8 +475,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,15 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,41 +526,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,137 +565,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +706,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2177,7 +2180,7 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2218,8 +2221,8 @@
       <c r="Q3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="3">
-        <v>6</v>
+      <c r="R3" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2260,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2301,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="R5" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2342,7 +2345,7 @@
         <v>8</v>
       </c>
       <c r="R6" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2383,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="R7" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2424,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="R8" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2462,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="R9" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2500,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="R10" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2538,7 +2541,7 @@
         <v>15</v>
       </c>
       <c r="R11" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2555,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="R12" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2572,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="R13" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2589,7 +2592,7 @@
         <v>15</v>
       </c>
       <c r="R14" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2606,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="R15" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2623,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="R16" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2634,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2645,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="R18" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2656,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="R19" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2667,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="R20" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2678,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="R21" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2689,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="R22" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2700,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="R23" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2711,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="R24" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2722,7 +2725,7 @@
         <v>5</v>
       </c>
       <c r="R25" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2733,7 +2736,7 @@
         <v>60</v>
       </c>
       <c r="R26" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2744,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="R27" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2755,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="R28" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2766,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="R29" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2777,7 +2780,7 @@
         <v>5</v>
       </c>
       <c r="R30" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2788,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="R31" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2941,7 +2944,7 @@
       </c>
       <c r="R42">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,6 +103,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -111,9 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,14 +156,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,74 +232,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -254,19 +254,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,67 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,91 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,17 +457,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,21 +471,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +490,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,22 +516,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2180,7 +2180,7 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="2">
         <v>6</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="Q3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="2">
         <v>12</v>
       </c>
     </row>
@@ -2262,8 +2262,8 @@
       <c r="Q4" s="2">
         <v>4</v>
       </c>
-      <c r="R4" s="3">
-        <v>12</v>
+      <c r="R4" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2304,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="R5" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2345,7 +2345,7 @@
         <v>8</v>
       </c>
       <c r="R6" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2386,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="R7" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2427,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="R8" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2465,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="R9" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2503,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="R10" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2541,7 +2541,7 @@
         <v>15</v>
       </c>
       <c r="R11" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2558,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="R12" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2575,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="R13" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2592,7 +2592,7 @@
         <v>15</v>
       </c>
       <c r="R14" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2609,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="R15" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2626,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="R16" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2637,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2648,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="R18" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2659,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="R19" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2670,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="R20" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2681,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="R21" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2692,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="R22" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2703,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="R23" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2714,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="R24" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2725,7 +2725,7 @@
         <v>5</v>
       </c>
       <c r="R25" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2736,7 +2736,7 @@
         <v>60</v>
       </c>
       <c r="R26" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2747,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="R27" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2758,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="R28" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2769,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="R29" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2780,7 +2780,7 @@
         <v>5</v>
       </c>
       <c r="R30" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2791,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="R31" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="R42">
         <f t="shared" si="1"/>
-        <v>348</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10500" activeTab="6"/>
+    <workbookView windowWidth="24000" windowHeight="9915" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>聚魂</t>
   </si>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,52 +92,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,10 +109,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,25 +171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +194,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,21 +238,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -254,19 +254,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,43 +392,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,115 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,20 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +468,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,41 +504,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +534,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,16 +565,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,119 +583,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,9 +706,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,7 +777,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1375,7 +1372,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1385,7 +1382,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:15">
+    <row r="1" s="1" customFormat="1" spans="2:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,8 +1425,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1475,8 +1475,11 @@
       <c r="O2" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1507,8 +1510,11 @@
       <c r="O3" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1539,8 +1545,11 @@
       <c r="O4" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1571,8 +1580,11 @@
       <c r="O5" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1603,8 +1615,11 @@
       <c r="O6" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1635,8 +1650,11 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1667,8 +1685,11 @@
       <c r="O8" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1696,8 +1717,11 @@
       <c r="O9" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1725,8 +1749,11 @@
       <c r="O10" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1754,45 +1781,63 @@
       <c r="O11" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="P11" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="P12" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="P13" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="P14" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="P15" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="D16">
         <v>40</v>
+      </c>
+      <c r="P16" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1995,7 +2040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2054,6 +2099,10 @@
       <c r="O42">
         <f t="shared" si="0"/>
         <v>596</v>
+      </c>
+      <c r="P42">
+        <f>SUM(P3:P41)</f>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -2262,7 +2311,7 @@
       <c r="Q4" s="2">
         <v>4</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <v>18</v>
       </c>
     </row>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>聚魂</t>
   </si>
@@ -70,10 +70,10 @@
     <t>云裳</t>
   </si>
   <si>
-    <t>云裳部件</t>
+    <t>云裳点化</t>
   </si>
   <si>
-    <t>云裳点化</t>
+    <t>云裳部件</t>
   </si>
 </sst>
 </file>
@@ -82,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -96,6 +96,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -103,7 +110,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,120 +238,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -254,7 +254,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,13 +326,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,103 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,37 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,17 +448,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,60 +532,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,145 +553,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,7 +777,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1372,7 +1372,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1382,7 +1382,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:16">
+    <row r="1" s="1" customFormat="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,8 +1428,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1478,8 +1481,11 @@
       <c r="P2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1513,8 +1519,11 @@
       <c r="P3" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1548,8 +1557,11 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1583,8 +1595,11 @@
       <c r="P5" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1618,8 +1633,11 @@
       <c r="P6" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1653,8 +1671,11 @@
       <c r="P7" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1688,8 +1709,11 @@
       <c r="P8" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1720,8 +1744,11 @@
       <c r="P9" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1752,8 +1779,11 @@
       <c r="P10" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1784,8 +1814,11 @@
       <c r="P11" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1795,8 +1828,11 @@
       <c r="P12" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1806,8 +1842,11 @@
       <c r="P13" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1817,8 +1856,11 @@
       <c r="P14" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1828,8 +1870,11 @@
       <c r="P15" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1839,125 +1884,173 @@
       <c r="P16" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="Q16" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="Q17" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="Q18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="Q19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="Q20" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="Q21" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="Q22" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="Q23" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="Q24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="Q25" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="D26">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="Q26" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="Q27" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="Q28" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="Q29" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="Q30" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="D31">
         <v>5</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2040,7 +2133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2103,6 +2196,10 @@
       <c r="P42">
         <f>SUM(P3:P41)</f>
         <v>430</v>
+      </c>
+      <c r="Q42">
+        <f>SUM(Q3:Q41)</f>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -2171,10 +2268,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9915" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>聚魂</t>
   </si>
@@ -73,6 +73,9 @@
     <t>云裳点化</t>
   </si>
   <si>
+    <t>绝技七</t>
+  </si>
+  <si>
     <t>云裳部件</t>
   </si>
 </sst>
@@ -83,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,10 +112,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,7 +199,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,61 +222,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,22 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -254,7 +257,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +305,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,121 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,36 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,13 +451,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,63 +540,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,145 +556,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,7 +780,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2211,7 +2214,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2221,7 +2224,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:18">
+    <row r="1" s="1" customFormat="1" spans="2:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2265,16 +2268,19 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2320,17 +2326,20 @@
       <c r="O2" s="2">
         <v>16</v>
       </c>
-      <c r="P2" s="2">
-        <v>0</v>
+      <c r="P2">
+        <v>60</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
       </c>
       <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2361,17 +2370,20 @@
       <c r="O3" s="2">
         <v>24</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2402,17 +2414,20 @@
       <c r="O4" s="2">
         <v>32</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>4</v>
       </c>
-      <c r="R4" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2443,17 +2458,20 @@
       <c r="O5" s="2">
         <v>52</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>6</v>
       </c>
-      <c r="R5" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2484,17 +2502,20 @@
       <c r="O6" s="2">
         <v>72</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>8</v>
       </c>
-      <c r="R6" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2525,17 +2546,20 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="2">
         <v>30</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>10</v>
       </c>
-      <c r="R7" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2566,17 +2590,20 @@
       <c r="O8" s="2">
         <v>80</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="2">
         <v>35</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12</v>
       </c>
-      <c r="R8" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2604,17 +2631,20 @@
       <c r="O9" s="2">
         <v>80</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="2">
         <v>35</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15</v>
       </c>
-      <c r="R9" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2642,17 +2672,20 @@
       <c r="O10" s="2">
         <v>80</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="2">
         <v>35</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15</v>
       </c>
-      <c r="R10" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2680,263 +2713,266 @@
       <c r="O11" s="2">
         <v>80</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="2">
         <v>35</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>15</v>
       </c>
-      <c r="R11" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>35</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15</v>
       </c>
-      <c r="R12" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>35</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>15</v>
       </c>
-      <c r="R13" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15</v>
       </c>
-      <c r="R14" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>35</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15</v>
       </c>
-      <c r="R15" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <v>35</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>15</v>
       </c>
-      <c r="R16" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="R17" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="R19" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="R23" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="R24" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="R25" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="D26">
         <v>60</v>
       </c>
-      <c r="R26" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="R27" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="R28" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="R30" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="R31" s="3">
+      <c r="S31" s="3">
         <v>18</v>
       </c>
     </row>
@@ -3020,7 +3056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3081,14 +3117,18 @@
         <v>596</v>
       </c>
       <c r="P42">
-        <f t="shared" ref="P42:R42" si="1">SUM(P3:P41)</f>
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ref="Q42:S42" si="1">SUM(Q3:Q41)</f>
         <v>430</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -85,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,11 +112,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,9 +175,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,48 +221,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,44 +236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +257,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +341,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,19 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,49 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,79 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,24 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,8 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +522,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -548,6 +539,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1842,7 +1842,7 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>35</v>
       </c>
       <c r="Q13" s="3">
@@ -2750,7 +2750,7 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>35</v>
       </c>
       <c r="R13" s="3">

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -85,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,21 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -136,8 +121,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,14 +212,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -169,14 +221,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,53 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +257,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,61 +401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,109 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,32 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +484,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -520,31 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,31 +568,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,100 +607,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2370,8 +2370,8 @@
       <c r="O3" s="2">
         <v>24</v>
       </c>
-      <c r="P3" s="3">
-        <v>60</v>
+      <c r="P3">
+        <v>75</v>
       </c>
       <c r="Q3" s="2">
         <v>10</v>
@@ -2414,8 +2414,8 @@
       <c r="O4" s="2">
         <v>32</v>
       </c>
-      <c r="P4" s="3">
-        <v>60</v>
+      <c r="P4">
+        <v>95</v>
       </c>
       <c r="Q4" s="2">
         <v>15</v>
@@ -2458,8 +2458,8 @@
       <c r="O5" s="2">
         <v>52</v>
       </c>
-      <c r="P5" s="3">
-        <v>60</v>
+      <c r="P5">
+        <v>125</v>
       </c>
       <c r="Q5" s="2">
         <v>30</v>
@@ -2502,8 +2502,8 @@
       <c r="O6" s="2">
         <v>72</v>
       </c>
-      <c r="P6" s="3">
-        <v>60</v>
+      <c r="P6">
+        <v>160</v>
       </c>
       <c r="Q6" s="2">
         <v>30</v>
@@ -2547,7 +2547,7 @@
         <v>80</v>
       </c>
       <c r="P7" s="3">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="2">
         <v>30</v>
@@ -2591,7 +2591,7 @@
         <v>80</v>
       </c>
       <c r="P8" s="3">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="2">
         <v>35</v>
@@ -2632,7 +2632,7 @@
         <v>80</v>
       </c>
       <c r="P9" s="3">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="2">
         <v>35</v>
@@ -2673,7 +2673,7 @@
         <v>80</v>
       </c>
       <c r="P10" s="3">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="2">
         <v>35</v>
@@ -2714,7 +2714,7 @@
         <v>80</v>
       </c>
       <c r="P11" s="3">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="2">
         <v>35</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>1315</v>
       </c>
       <c r="Q42">
         <f t="shared" ref="Q42:S42" si="1">SUM(Q3:Q41)</f>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="12" sheetId="6" r:id="rId5"/>
     <sheet name="13" sheetId="7" r:id="rId6"/>
     <sheet name="14" sheetId="1" r:id="rId7"/>
+    <sheet name="15" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
   <si>
     <t>聚魂</t>
   </si>
@@ -67,13 +68,13 @@
     <t>绝技六副</t>
   </si>
   <si>
+    <t>绝技七</t>
+  </si>
+  <si>
     <t>云裳</t>
   </si>
   <si>
     <t>云裳点化</t>
-  </si>
-  <si>
-    <t>绝技七</t>
   </si>
   <si>
     <t>云裳部件</t>
@@ -84,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,31 +100,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,13 +144,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -153,14 +152,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,23 +173,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,24 +198,39 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,7 +252,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,25 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,97 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,31 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,11 +446,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,15 +526,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -495,56 +535,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,31 +563,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,100 +599,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,7 +1370,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1385,7 +1380,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:17">
+    <row r="1" s="1" customFormat="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,8 +1429,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1481,14 +1479,17 @@
       <c r="O2" s="2">
         <v>16</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1519,14 +1520,17 @@
       <c r="O3" s="2">
         <v>24</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1557,14 +1561,17 @@
       <c r="O4" s="2">
         <v>32</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1595,14 +1602,17 @@
       <c r="O5" s="2">
         <v>52</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="2">
         <v>30</v>
       </c>
-      <c r="Q5" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1633,14 +1643,17 @@
       <c r="O6" s="2">
         <v>72</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="2">
         <v>30</v>
       </c>
-      <c r="Q6" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1671,14 +1684,17 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="2">
         <v>30</v>
       </c>
-      <c r="Q7" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1709,14 +1725,17 @@
       <c r="O8" s="2">
         <v>80</v>
       </c>
-      <c r="P8" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="P8">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>35</v>
+      </c>
+      <c r="R8" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1744,14 +1763,17 @@
       <c r="O9" s="2">
         <v>80</v>
       </c>
-      <c r="P9" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="P9">
+        <v>270</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>35</v>
+      </c>
+      <c r="R9" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1779,14 +1801,17 @@
       <c r="O10" s="2">
         <v>80</v>
       </c>
-      <c r="P10" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="P10">
+        <v>295</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>35</v>
+      </c>
+      <c r="R10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1814,84 +1839,87 @@
       <c r="O11" s="2">
         <v>80</v>
       </c>
-      <c r="P11" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="P11">
+        <v>315</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>35</v>
+      </c>
+      <c r="R11" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="P12" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12" s="2">
+        <v>35</v>
+      </c>
+      <c r="R12" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Q13" s="2">
+        <v>35</v>
+      </c>
+      <c r="R13" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Q14" s="2">
+        <v>35</v>
+      </c>
+      <c r="R14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="Q15" s="2">
+        <v>35</v>
+      </c>
+      <c r="R15" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="P16" s="3">
-        <v>35</v>
-      </c>
       <c r="Q16" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>35</v>
+      </c>
+      <c r="R16" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1899,10 +1927,13 @@
         <v>3</v>
       </c>
       <c r="Q17" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>35</v>
+      </c>
+      <c r="R17" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1910,10 +1941,13 @@
         <v>3</v>
       </c>
       <c r="Q18" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>35</v>
+      </c>
+      <c r="R18" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1921,10 +1955,13 @@
         <v>3</v>
       </c>
       <c r="Q19" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>35</v>
+      </c>
+      <c r="R19" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1932,10 +1969,13 @@
         <v>3</v>
       </c>
       <c r="Q20" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>35</v>
+      </c>
+      <c r="R20" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1943,117 +1983,120 @@
         <v>3</v>
       </c>
       <c r="Q21" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>35</v>
+      </c>
+      <c r="R21" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="Q23" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="Q24" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="Q25" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="D26">
         <v>60</v>
       </c>
-      <c r="Q26" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="Q27" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="Q28" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="Q30" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="Q31" s="3">
-        <v>18</v>
+      <c r="R31" s="2">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2136,12 +2179,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:P42" si="0">SUM(B2:B41)</f>
+        <f t="shared" ref="B42:Q42" si="0">SUM(B2:B41)</f>
         <v>40</v>
       </c>
       <c r="C42">
@@ -2197,12 +2240,16 @@
         <v>596</v>
       </c>
       <c r="P42">
-        <f>SUM(P3:P41)</f>
-        <v>430</v>
+        <f t="shared" si="0"/>
+        <v>1840</v>
       </c>
       <c r="Q42">
-        <f>SUM(Q3:Q41)</f>
-        <v>516</v>
+        <f>SUM(Q2:Q41)</f>
+        <v>605</v>
+      </c>
+      <c r="R42">
+        <f>SUM(R2:R41)</f>
+        <v>2790</v>
       </c>
     </row>
   </sheetData>
@@ -2212,6 +2259,964 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:19">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="N5" s="2">
+        <v>52</v>
+      </c>
+      <c r="O5" s="2">
+        <v>52</v>
+      </c>
+      <c r="P5">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>30</v>
+      </c>
+      <c r="R5" s="2">
+        <v>6</v>
+      </c>
+      <c r="S5" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2">
+        <v>72</v>
+      </c>
+      <c r="O6" s="2">
+        <v>72</v>
+      </c>
+      <c r="P6">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>30</v>
+      </c>
+      <c r="R6" s="2">
+        <v>8</v>
+      </c>
+      <c r="S6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2">
+        <v>80</v>
+      </c>
+      <c r="O7" s="2">
+        <v>80</v>
+      </c>
+      <c r="P7">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>30</v>
+      </c>
+      <c r="R7" s="2">
+        <v>10</v>
+      </c>
+      <c r="S7" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="L8">
+        <v>60</v>
+      </c>
+      <c r="N8" s="2">
+        <v>80</v>
+      </c>
+      <c r="O8" s="2">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>35</v>
+      </c>
+      <c r="R8" s="2">
+        <v>12</v>
+      </c>
+      <c r="S8" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>75</v>
+      </c>
+      <c r="N9" s="2">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2">
+        <v>80</v>
+      </c>
+      <c r="P9">
+        <v>270</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>35</v>
+      </c>
+      <c r="R9" s="2">
+        <v>15</v>
+      </c>
+      <c r="S9" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="L10">
+        <v>90</v>
+      </c>
+      <c r="N10" s="2">
+        <v>80</v>
+      </c>
+      <c r="O10" s="2">
+        <v>80</v>
+      </c>
+      <c r="P10">
+        <v>295</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>35</v>
+      </c>
+      <c r="R10" s="2">
+        <v>15</v>
+      </c>
+      <c r="S10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>160</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>160</v>
+      </c>
+      <c r="L11">
+        <v>120</v>
+      </c>
+      <c r="N11" s="2">
+        <v>80</v>
+      </c>
+      <c r="O11" s="2">
+        <v>80</v>
+      </c>
+      <c r="P11">
+        <v>315</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>35</v>
+      </c>
+      <c r="R11" s="2">
+        <v>15</v>
+      </c>
+      <c r="S11" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>35</v>
+      </c>
+      <c r="R12" s="2">
+        <v>15</v>
+      </c>
+      <c r="S12" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>35</v>
+      </c>
+      <c r="R13" s="2">
+        <v>15</v>
+      </c>
+      <c r="S13" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>35</v>
+      </c>
+      <c r="R14" s="2">
+        <v>15</v>
+      </c>
+      <c r="S14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>35</v>
+      </c>
+      <c r="R15" s="2">
+        <v>15</v>
+      </c>
+      <c r="S15" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>35</v>
+      </c>
+      <c r="R16" s="2">
+        <v>15</v>
+      </c>
+      <c r="S16" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>35</v>
+      </c>
+      <c r="R17" s="2">
+        <v>15</v>
+      </c>
+      <c r="S17" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>35</v>
+      </c>
+      <c r="R18" s="2">
+        <v>15</v>
+      </c>
+      <c r="S18" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>35</v>
+      </c>
+      <c r="R19" s="2">
+        <v>15</v>
+      </c>
+      <c r="S19" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>35</v>
+      </c>
+      <c r="R20" s="2">
+        <v>15</v>
+      </c>
+      <c r="S20" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>35</v>
+      </c>
+      <c r="R21" s="2">
+        <v>15</v>
+      </c>
+      <c r="S21" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="S22" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="S23" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="S24" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="S25" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="S26" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="S27" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="S28" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="S29" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="S30" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="S31" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:S42" si="0">SUM(B2:B41)</f>
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>1840</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>2790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S42"/>
@@ -2268,16 +3273,16 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2467,8 +3472,8 @@
       <c r="R5" s="2">
         <v>6</v>
       </c>
-      <c r="S5" s="3">
-        <v>18</v>
+      <c r="S5" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2511,8 +3516,8 @@
       <c r="R6" s="2">
         <v>8</v>
       </c>
-      <c r="S6" s="3">
-        <v>18</v>
+      <c r="S6" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2546,17 +3551,17 @@
       <c r="O7" s="2">
         <v>80</v>
       </c>
-      <c r="P7" s="3">
-        <v>160</v>
+      <c r="P7">
+        <v>200</v>
       </c>
       <c r="Q7" s="2">
         <v>30</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>10</v>
       </c>
-      <c r="S7" s="3">
-        <v>18</v>
+      <c r="S7" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2590,23 +3595,26 @@
       <c r="O8" s="2">
         <v>80</v>
       </c>
-      <c r="P8" s="3">
-        <v>160</v>
+      <c r="P8">
+        <v>245</v>
       </c>
       <c r="Q8" s="2">
         <v>35</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <v>12</v>
       </c>
-      <c r="S8" s="3">
-        <v>18</v>
+      <c r="S8" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>240</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -2631,17 +3639,17 @@
       <c r="O9" s="2">
         <v>80</v>
       </c>
-      <c r="P9" s="3">
-        <v>160</v>
+      <c r="P9">
+        <v>270</v>
       </c>
       <c r="Q9" s="2">
         <v>35</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <v>15</v>
       </c>
-      <c r="S9" s="3">
-        <v>18</v>
+      <c r="S9" s="2">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2672,17 +3680,17 @@
       <c r="O10" s="2">
         <v>80</v>
       </c>
-      <c r="P10" s="3">
-        <v>160</v>
+      <c r="P10">
+        <v>295</v>
       </c>
       <c r="Q10" s="2">
         <v>35</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="2">
         <v>15</v>
       </c>
-      <c r="S10" s="3">
-        <v>18</v>
+      <c r="S10" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2713,17 +3721,17 @@
       <c r="O11" s="2">
         <v>80</v>
       </c>
-      <c r="P11" s="3">
-        <v>160</v>
+      <c r="P11">
+        <v>315</v>
       </c>
       <c r="Q11" s="2">
         <v>35</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>15</v>
       </c>
-      <c r="S11" s="3">
-        <v>18</v>
+      <c r="S11" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2736,11 +3744,11 @@
       <c r="Q12" s="2">
         <v>35</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="2">
         <v>15</v>
       </c>
-      <c r="S12" s="3">
-        <v>18</v>
+      <c r="S12" s="2">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2753,11 +3761,11 @@
       <c r="Q13" s="2">
         <v>35</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="2">
         <v>15</v>
       </c>
-      <c r="S13" s="3">
-        <v>18</v>
+      <c r="S13" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2767,14 +3775,14 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>35</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="2">
+        <v>35</v>
+      </c>
+      <c r="R14" s="2">
         <v>15</v>
       </c>
-      <c r="S14" s="3">
-        <v>18</v>
+      <c r="S14" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2784,14 +3792,14 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>35</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="2">
+        <v>35</v>
+      </c>
+      <c r="R15" s="2">
         <v>15</v>
       </c>
-      <c r="S15" s="3">
-        <v>18</v>
+      <c r="S15" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2804,11 +3812,11 @@
       <c r="Q16" s="3">
         <v>35</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="2">
         <v>15</v>
       </c>
-      <c r="S16" s="3">
-        <v>18</v>
+      <c r="S16" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2818,8 +3826,14 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="S17" s="3">
-        <v>18</v>
+      <c r="Q17" s="3">
+        <v>35</v>
+      </c>
+      <c r="R17" s="2">
+        <v>15</v>
+      </c>
+      <c r="S17" s="2">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2829,8 +3843,14 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
-        <v>18</v>
+      <c r="Q18" s="3">
+        <v>35</v>
+      </c>
+      <c r="R18" s="2">
+        <v>15</v>
+      </c>
+      <c r="S18" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2840,8 +3860,14 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="S19" s="3">
-        <v>18</v>
+      <c r="Q19" s="3">
+        <v>35</v>
+      </c>
+      <c r="R19" s="2">
+        <v>15</v>
+      </c>
+      <c r="S19" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2851,8 +3877,14 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>18</v>
+      <c r="Q20" s="3">
+        <v>35</v>
+      </c>
+      <c r="R20" s="2">
+        <v>15</v>
+      </c>
+      <c r="S20" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2862,8 +3894,14 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
-        <v>18</v>
+      <c r="Q21" s="3">
+        <v>35</v>
+      </c>
+      <c r="R21" s="2">
+        <v>15</v>
+      </c>
+      <c r="S21" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2873,8 +3911,8 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>18</v>
+      <c r="S22" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2884,8 +3922,8 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="S23" s="3">
-        <v>18</v>
+      <c r="S23" s="2">
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2895,8 +3933,8 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
-        <v>18</v>
+      <c r="S24" s="2">
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2906,8 +3944,8 @@
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="S25" s="3">
-        <v>18</v>
+      <c r="S25" s="2">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2917,8 +3955,8 @@
       <c r="D26">
         <v>60</v>
       </c>
-      <c r="S26" s="3">
-        <v>18</v>
+      <c r="S26" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2928,8 +3966,8 @@
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="S27" s="3">
-        <v>18</v>
+      <c r="S27" s="2">
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2939,8 +3977,8 @@
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="S28" s="3">
-        <v>18</v>
+      <c r="S28" s="2">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2950,8 +3988,8 @@
       <c r="D29">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>18</v>
+      <c r="S29" s="2">
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2961,8 +3999,8 @@
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="S30" s="3">
-        <v>18</v>
+      <c r="S30" s="2">
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2972,8 +4010,8 @@
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="S31" s="3">
-        <v>18</v>
+      <c r="S31" s="2">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3061,12 +4099,12 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:P42" si="0">SUM(B2:B41)</f>
+        <f t="shared" ref="B42:S42" si="0">SUM(B2:B41)</f>
         <v>40</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>650</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -3118,19 +4156,19 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>1315</v>
+        <v>1840</v>
       </c>
       <c r="Q42">
-        <f t="shared" ref="Q42:S42" si="1">SUM(Q3:Q41)</f>
-        <v>430</v>
+        <f t="shared" si="0"/>
+        <v>605</v>
       </c>
       <c r="R42">
-        <f t="shared" si="1"/>
-        <v>162</v>
+        <f t="shared" si="0"/>
+        <v>237</v>
       </c>
       <c r="S42">
-        <f t="shared" si="1"/>
-        <v>516</v>
+        <f t="shared" si="0"/>
+        <v>2790</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -85,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -100,7 +100,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,10 +150,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,16 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,22 +199,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,14 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -197,47 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +252,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,13 +330,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,19 +366,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,43 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,67 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +447,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -457,6 +472,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,25 +515,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -505,32 +531,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,145 +551,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:Q42" si="0">SUM(B2:B41)</f>
+        <f t="shared" ref="B42:R42" si="0">SUM(B2:B41)</f>
         <v>40</v>
       </c>
       <c r="C42">
@@ -2244,11 +2244,11 @@
         <v>1840</v>
       </c>
       <c r="Q42">
-        <f>SUM(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>605</v>
       </c>
       <c r="R42">
-        <f>SUM(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>2790</v>
       </c>
     </row>
@@ -2654,6 +2654,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>240</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -3143,7 +3146,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>650</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>

--- a/src/main/resources/CardPiece.xlsx
+++ b/src/main/resources/CardPiece.xlsx
@@ -85,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,13 +100,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,7 +107,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,30 +152,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,22 +207,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -191,7 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,44 +230,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,7 +252,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,31 +402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,139 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,21 +453,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -472,30 +463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +484,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -535,6 +500,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -543,6 +538,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,137 +569,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +710,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1739,6 +1751,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>240</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -1996,6 +2011,9 @@
       <c r="D22">
         <v>5</v>
       </c>
+      <c r="Q22" s="4">
+        <v>35</v>
+      </c>
       <c r="R22" s="2">
         <v>126</v>
       </c>
@@ -2007,6 +2025,9 @@
       <c r="D23">
         <v>5</v>
       </c>
+      <c r="Q23" s="4">
+        <v>35</v>
+      </c>
       <c r="R23" s="2">
         <v>132</v>
       </c>
@@ -2018,6 +2039,9 @@
       <c r="D24">
         <v>5</v>
       </c>
+      <c r="Q24" s="4">
+        <v>35</v>
+      </c>
       <c r="R24" s="2">
         <v>138</v>
       </c>
@@ -2029,6 +2053,9 @@
       <c r="D25">
         <v>5</v>
       </c>
+      <c r="Q25" s="4">
+        <v>35</v>
+      </c>
       <c r="R25" s="2">
         <v>144</v>
       </c>
@@ -2040,6 +2067,9 @@
       <c r="D26">
         <v>60</v>
       </c>
+      <c r="Q26" s="5">
+        <v>35</v>
+      </c>
       <c r="R26" s="2">
         <v>150</v>
       </c>
@@ -2051,6 +2081,9 @@
       <c r="D27">
         <v>5</v>
       </c>
+      <c r="Q27" s="5">
+        <v>35</v>
+      </c>
       <c r="R27" s="2">
         <v>156</v>
       </c>
@@ -2062,6 +2095,9 @@
       <c r="D28">
         <v>5</v>
       </c>
+      <c r="Q28" s="5">
+        <v>35</v>
+      </c>
       <c r="R28" s="2">
         <v>162</v>
       </c>
@@ -2073,6 +2109,9 @@
       <c r="D29">
         <v>5</v>
       </c>
+      <c r="Q29" s="5">
+        <v>35</v>
+      </c>
       <c r="R29" s="2">
         <v>168</v>
       </c>
@@ -2084,6 +2123,9 @@
       <c r="D30">
         <v>5</v>
       </c>
+      <c r="Q30" s="5">
+        <v>35</v>
+      </c>
       <c r="R30" s="2">
         <v>174</v>
       </c>
@@ -2095,6 +2137,9 @@
       <c r="D31">
         <v>5</v>
       </c>
+      <c r="Q31" s="5">
+        <v>35</v>
+      </c>
       <c r="R31" s="2">
         <v>180</v>
       </c>
@@ -2189,7 +2234,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>650</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -2245,7 +2290,7 @@
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>955</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
@@ -2953,6 +2998,12 @@
       <c r="D22">
         <v>5</v>
       </c>
+      <c r="Q22" s="4">
+        <v>35</v>
+      </c>
+      <c r="R22" s="4">
+        <v>15</v>
+      </c>
       <c r="S22" s="2">
         <v>126</v>
       </c>
@@ -2964,6 +3015,12 @@
       <c r="D23">
         <v>5</v>
       </c>
+      <c r="Q23" s="4">
+        <v>35</v>
+      </c>
+      <c r="R23" s="4">
+        <v>15</v>
+      </c>
       <c r="S23" s="2">
         <v>132</v>
       </c>
@@ -2975,6 +3032,12 @@
       <c r="D24">
         <v>5</v>
       </c>
+      <c r="Q24" s="4">
+        <v>35</v>
+      </c>
+      <c r="R24" s="4">
+        <v>15</v>
+      </c>
       <c r="S24" s="2">
         <v>138</v>
       </c>
@@ -2986,6 +3049,12 @@
       <c r="D25">
         <v>5</v>
       </c>
+      <c r="Q25" s="4">
+        <v>35</v>
+      </c>
+      <c r="R25" s="4">
+        <v>15</v>
+      </c>
       <c r="S25" s="2">
         <v>144</v>
       </c>
@@ -2997,6 +3066,12 @@
       <c r="D26">
         <v>60</v>
       </c>
+      <c r="Q26" s="5">
+        <v>35</v>
+      </c>
+      <c r="R26" s="4">
+        <v>15</v>
+      </c>
       <c r="S26" s="2">
         <v>150</v>
       </c>
@@ -3008,6 +3083,12 @@
       <c r="D27">
         <v>5</v>
       </c>
+      <c r="Q27" s="5">
+        <v>35</v>
+      </c>
+      <c r="R27" s="4">
+        <v>15</v>
+      </c>
       <c r="S27" s="2">
         <v>156</v>
       </c>
@@ -3019,6 +3100,12 @@
       <c r="D28">
         <v>5</v>
       </c>
+      <c r="Q28" s="5">
+        <v>35</v>
+      </c>
+      <c r="R28" s="4">
+        <v>15</v>
+      </c>
       <c r="S28" s="2">
         <v>162</v>
       </c>
@@ -3030,6 +3117,12 @@
       <c r="D29">
         <v>5</v>
       </c>
+      <c r="Q29" s="5">
+        <v>35</v>
+      </c>
+      <c r="R29" s="4">
+        <v>15</v>
+      </c>
       <c r="S29" s="2">
         <v>168</v>
       </c>
@@ -3041,6 +3134,12 @@
       <c r="D30">
         <v>5</v>
       </c>
+      <c r="Q30" s="5">
+        <v>35</v>
+      </c>
+      <c r="R30" s="4">
+        <v>15</v>
+      </c>
       <c r="S30" s="2">
         <v>174</v>
       </c>
@@ -3052,6 +3151,12 @@
       <c r="D31">
         <v>5</v>
       </c>
+      <c r="Q31" s="5">
+        <v>35</v>
+      </c>
+      <c r="R31" s="4">
+        <v>15</v>
+      </c>
       <c r="S31" s="2">
         <v>180</v>
       </c>
@@ -3202,11 +3307,11 @@
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>955</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="S42">
         <f t="shared" si="0"/>
@@ -3914,6 +4019,12 @@
       <c r="D22">
         <v>5</v>
       </c>
+      <c r="Q22" s="4">
+        <v>35</v>
+      </c>
+      <c r="R22" s="4">
+        <v>15</v>
+      </c>
       <c r="S22" s="2">
         <v>126</v>
       </c>
@@ -3925,6 +4036,12 @@
       <c r="D23">
         <v>5</v>
       </c>
+      <c r="Q23" s="4">
+        <v>35</v>
+      </c>
+      <c r="R23" s="4">
+        <v>15</v>
+      </c>
       <c r="S23" s="2">
         <v>132</v>
       </c>
@@ -3936,6 +4053,12 @@
       <c r="D24">
         <v>5</v>
       </c>
+      <c r="Q24" s="4">
+        <v>35</v>
+      </c>
+      <c r="R24" s="4">
+        <v>15</v>
+      </c>
       <c r="S24" s="2">
         <v>138</v>
       </c>
@@ -3947,6 +4070,12 @@
       <c r="D25">
         <v>5</v>
       </c>
+      <c r="Q25" s="4">
+        <v>35</v>
+      </c>
+      <c r="R25" s="4">
+        <v>15</v>
+      </c>
       <c r="S25" s="2">
         <v>144</v>
       </c>
@@ -3958,6 +4087,12 @@
       <c r="D26">
         <v>60</v>
       </c>
+      <c r="Q26" s="5">
+        <v>35</v>
+      </c>
+      <c r="R26" s="4">
+        <v>15</v>
+      </c>
       <c r="S26" s="2">
         <v>150</v>
       </c>
@@ -3969,6 +4104,12 @@
       <c r="D27">
         <v>5</v>
       </c>
+      <c r="Q27" s="5">
+        <v>35</v>
+      </c>
+      <c r="R27" s="4">
+        <v>15</v>
+      </c>
       <c r="S27" s="2">
         <v>156</v>
       </c>
@@ -3980,6 +4121,12 @@
       <c r="D28">
         <v>5</v>
       </c>
+      <c r="Q28" s="5">
+        <v>35</v>
+      </c>
+      <c r="R28" s="4">
+        <v>15</v>
+      </c>
       <c r="S28" s="2">
         <v>162</v>
       </c>
@@ -3991,6 +4138,12 @@
       <c r="D29">
         <v>5</v>
       </c>
+      <c r="Q29" s="5">
+        <v>35</v>
+      </c>
+      <c r="R29" s="4">
+        <v>15</v>
+      </c>
       <c r="S29" s="2">
         <v>168</v>
       </c>
@@ -4002,6 +4155,12 @@
       <c r="D30">
         <v>5</v>
       </c>
+      <c r="Q30" s="5">
+        <v>35</v>
+      </c>
+      <c r="R30" s="4">
+        <v>15</v>
+      </c>
       <c r="S30" s="2">
         <v>174</v>
       </c>
@@ -4013,6 +4172,12 @@
       <c r="D31">
         <v>5</v>
       </c>
+      <c r="Q31" s="5">
+        <v>35</v>
+      </c>
+      <c r="R31" s="4">
+        <v>15</v>
+      </c>
       <c r="S31" s="2">
         <v>180</v>
       </c>
@@ -4163,11 +4328,11 @@
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>955</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="S42">
         <f t="shared" si="0"/>
